--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,41 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D7" t="n">
+        <v>71</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>19:59:57 2025-11-26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,6 +690,461 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20:00:08 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20:00:19 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20:00:29 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20:00:40 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20:00:51 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20:01:01 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20:01:12 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>71</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20:01:22 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20:01:33 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20:01:43 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20:01:54 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D19" t="n">
+        <v>71</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20:02:04 2025-11-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20:02:15 2025-11-26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
